--- a/산출물/요구사항정의서 종합본.xlsx
+++ b/산출물/요구사항정의서 종합본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\octodin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinalProject\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D7AB07F-BCB6-466A-A8A6-3BDA8BFC38A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941490D-D256-49E8-BA89-81400E35BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6548DD51-0C7E-43CF-8491-0D28AAA80AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6548DD51-0C7E-43CF-8491-0D28AAA80AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="114">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,12 +555,24 @@
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>21.12.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Ham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,9 +681,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -716,6 +725,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,126 +1046,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD1C1A5-7E1B-476A-A469-DEC2C2CA5CE2}">
   <dimension ref="A1:IU34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="38.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="5"/>
+    <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:255">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" spans="1:255" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:255">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="3" spans="1:255" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:255" ht="25.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:255" ht="49.5">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:255" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:255" ht="49.5">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="1"/>
@@ -1404,29 +1422,29 @@
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
     </row>
-    <row r="6" spans="1:255" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:255" ht="132">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="1"/>
@@ -1677,55 +1695,55 @@
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
     </row>
-    <row r="7" spans="1:255" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:255" ht="66">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:255" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:255" ht="66">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="1"/>
@@ -1976,29 +1994,29 @@
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
     </row>
-    <row r="9" spans="1:255" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:255" ht="66">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="1"/>
@@ -2249,29 +2267,29 @@
       <c r="IT9" s="1"/>
       <c r="IU9" s="1"/>
     </row>
-    <row r="10" spans="1:255" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:255" ht="33">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I10" s="1"/>
@@ -2522,29 +2540,29 @@
       <c r="IT10" s="1"/>
       <c r="IU10" s="1"/>
     </row>
-    <row r="11" spans="1:255" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:255" ht="33">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I11" s="1"/>
@@ -2795,81 +2813,81 @@
       <c r="IT11" s="1"/>
       <c r="IU11" s="1"/>
     </row>
-    <row r="12" spans="1:255" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:255" ht="181.5">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:255" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:255" ht="148.5">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:255" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:255" ht="99">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I14" s="1"/>
@@ -3120,29 +3138,29 @@
       <c r="IT14" s="1"/>
       <c r="IU14" s="1"/>
     </row>
-    <row r="15" spans="1:255" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:255">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I15" s="1"/>
@@ -3393,29 +3411,29 @@
       <c r="IT15" s="1"/>
       <c r="IU15" s="1"/>
     </row>
-    <row r="16" spans="1:255" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:255">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I16" s="1"/>
@@ -3666,29 +3684,29 @@
       <c r="IT16" s="1"/>
       <c r="IU16" s="1"/>
     </row>
-    <row r="17" spans="1:255" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:255" ht="148.5">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I17" s="1"/>
@@ -3939,29 +3957,29 @@
       <c r="IT17" s="1"/>
       <c r="IU17" s="1"/>
     </row>
-    <row r="18" spans="1:255" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:255" ht="99">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="1"/>
@@ -4212,29 +4230,29 @@
       <c r="IT18" s="1"/>
       <c r="IU18" s="1"/>
     </row>
-    <row r="19" spans="1:255" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:255" ht="49.5">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I19" s="1"/>
@@ -4485,29 +4503,29 @@
       <c r="IT19" s="1"/>
       <c r="IU19" s="1"/>
     </row>
-    <row r="20" spans="1:255" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:255" ht="99">
+      <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I20" s="1"/>
@@ -4758,81 +4776,81 @@
       <c r="IT20" s="1"/>
       <c r="IU20" s="1"/>
     </row>
-    <row r="21" spans="1:255" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:255" ht="115.5">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:255" ht="174" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:255" ht="165">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:255" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:255" ht="66">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="1"/>
@@ -5083,29 +5101,29 @@
       <c r="IT23" s="1"/>
       <c r="IU23" s="1"/>
     </row>
-    <row r="24" spans="1:255" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:255" ht="99">
+      <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="1"/>
@@ -5356,29 +5374,29 @@
       <c r="IT24" s="1"/>
       <c r="IU24" s="1"/>
     </row>
-    <row r="25" spans="1:255" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:255" ht="99">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I25" s="1"/>
@@ -5629,29 +5647,29 @@
       <c r="IT25" s="1"/>
       <c r="IU25" s="1"/>
     </row>
-    <row r="26" spans="1:255" ht="208.8" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:255" ht="198">
+      <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I26" s="1"/>
@@ -5902,29 +5920,29 @@
       <c r="IT26" s="1"/>
       <c r="IU26" s="1"/>
     </row>
-    <row r="27" spans="1:255" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:255" ht="33">
+      <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I27" s="1"/>
@@ -6175,29 +6193,29 @@
       <c r="IT27" s="1"/>
       <c r="IU27" s="1"/>
     </row>
-    <row r="28" spans="1:255" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:255" ht="49.5">
+      <c r="A28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I28" s="1"/>
@@ -6448,29 +6466,29 @@
       <c r="IT28" s="1"/>
       <c r="IU28" s="1"/>
     </row>
-    <row r="29" spans="1:255" ht="87" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:255" ht="82.5">
+      <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="1"/>
@@ -6721,55 +6739,55 @@
       <c r="IT29" s="1"/>
       <c r="IU29" s="1"/>
     </row>
-    <row r="30" spans="1:255" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:255">
+      <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:255" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:255" ht="33">
+      <c r="A31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I31" s="1"/>
@@ -7020,45 +7038,45 @@
       <c r="IT31" s="1"/>
       <c r="IU31" s="1"/>
     </row>
-    <row r="32" spans="1:255" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:255">
+      <c r="A32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+    <row r="33" spans="4:8">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+    <row r="34" spans="4:8">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/산출물/요구사항정의서 종합본.xlsx
+++ b/산출물/요구사항정의서 종합본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinalProject\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941490D-D256-49E8-BA89-81400E35BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE352BD-C50D-4B1A-8BA6-6443E0F508EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6548DD51-0C7E-43CF-8491-0D28AAA80AE5}"/>
   </bookViews>
@@ -560,11 +560,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Team 3</t>
+    <t>The Ham</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Ham</t>
+    <t>GeniousMES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,9 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -727,6 +724,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,19 +1049,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD1C1A5-7E1B-476A-A469-DEC2C2CA5CE2}">
   <dimension ref="A1:IU34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="4"/>
+    <col min="1" max="1" width="10.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="3"/>
+    <col min="8" max="8" width="12.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255">
@@ -1071,14 +1076,14 @@
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>113</v>
+      <c r="F1" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>112</v>
+      <c r="H1" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:255">
@@ -1089,89 +1094,89 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:255" ht="25.5" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:255" ht="49.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:255" ht="49.5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="1"/>
@@ -1423,28 +1428,28 @@
       <c r="IU5" s="1"/>
     </row>
     <row r="6" spans="1:255" ht="132">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="1"/>
@@ -1696,54 +1701,54 @@
       <c r="IU6" s="1"/>
     </row>
     <row r="7" spans="1:255" ht="66">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:255" ht="66">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="1"/>
@@ -1995,28 +2000,28 @@
       <c r="IU8" s="1"/>
     </row>
     <row r="9" spans="1:255" ht="66">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="1"/>
@@ -2268,28 +2273,28 @@
       <c r="IU9" s="1"/>
     </row>
     <row r="10" spans="1:255" ht="33">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I10" s="1"/>
@@ -2541,28 +2546,28 @@
       <c r="IU10" s="1"/>
     </row>
     <row r="11" spans="1:255" ht="33">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I11" s="1"/>
@@ -2814,80 +2819,80 @@
       <c r="IU11" s="1"/>
     </row>
     <row r="12" spans="1:255" ht="181.5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:255" ht="148.5">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:255" ht="99">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I14" s="1"/>
@@ -3139,28 +3144,28 @@
       <c r="IU14" s="1"/>
     </row>
     <row r="15" spans="1:255">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I15" s="1"/>
@@ -3412,28 +3417,28 @@
       <c r="IU15" s="1"/>
     </row>
     <row r="16" spans="1:255">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I16" s="1"/>
@@ -3685,28 +3690,28 @@
       <c r="IU16" s="1"/>
     </row>
     <row r="17" spans="1:255" ht="148.5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I17" s="1"/>
@@ -3958,28 +3963,28 @@
       <c r="IU17" s="1"/>
     </row>
     <row r="18" spans="1:255" ht="99">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="1"/>
@@ -4231,28 +4236,28 @@
       <c r="IU18" s="1"/>
     </row>
     <row r="19" spans="1:255" ht="49.5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I19" s="1"/>
@@ -4504,28 +4509,28 @@
       <c r="IU19" s="1"/>
     </row>
     <row r="20" spans="1:255" ht="99">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I20" s="1"/>
@@ -4777,80 +4782,80 @@
       <c r="IU20" s="1"/>
     </row>
     <row r="21" spans="1:255" ht="115.5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:255" ht="165">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:255" ht="66">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="1"/>
@@ -5102,28 +5107,28 @@
       <c r="IU23" s="1"/>
     </row>
     <row r="24" spans="1:255" ht="99">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="1"/>
@@ -5375,28 +5380,28 @@
       <c r="IU24" s="1"/>
     </row>
     <row r="25" spans="1:255" ht="99">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I25" s="1"/>
@@ -5648,28 +5653,28 @@
       <c r="IU25" s="1"/>
     </row>
     <row r="26" spans="1:255" ht="198">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I26" s="1"/>
@@ -5921,28 +5926,28 @@
       <c r="IU26" s="1"/>
     </row>
     <row r="27" spans="1:255" ht="33">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I27" s="1"/>
@@ -6194,28 +6199,28 @@
       <c r="IU27" s="1"/>
     </row>
     <row r="28" spans="1:255" ht="49.5">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I28" s="1"/>
@@ -6467,28 +6472,28 @@
       <c r="IU28" s="1"/>
     </row>
     <row r="29" spans="1:255" ht="82.5">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="1"/>
@@ -6740,54 +6745,54 @@
       <c r="IU29" s="1"/>
     </row>
     <row r="30" spans="1:255">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:255" ht="33">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I31" s="1"/>
@@ -7039,44 +7044,44 @@
       <c r="IU31" s="1"/>
     </row>
     <row r="32" spans="1:255">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="4:8">
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="4:8">
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
